--- a/IMU_TaskList.xlsx
+++ b/IMU_TaskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive_Politecnico_backup\Desktop\IMU_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEC726C-2135-4ACE-9720-5B966117828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E0C6C7-80A3-4397-A757-58317A97229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>PHASE</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Add README</t>
+  </si>
+  <si>
+    <t>Skipped</t>
   </si>
 </sst>
 </file>
@@ -329,11 +332,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,12 +350,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,8 +572,8 @@
   </sheetPr>
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D11"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -579,7 +582,7 @@
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +606,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -627,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="9"/>
     </row>
@@ -639,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -651,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -663,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -675,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -687,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -699,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -711,9 +714,9 @@
         <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -725,7 +728,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -737,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="10"/>
     </row>
@@ -751,7 +754,7 @@
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -825,7 +828,7 @@
       <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -875,7 +878,7 @@
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -949,7 +952,7 @@
       <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1039,12 +1042,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D31:D38"/>
     <mergeCell ref="D3:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D20"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D25:D30"/>
-    <mergeCell ref="D31:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
